--- a/data/trans_bre/P21D_2_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_2_R-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-2.912694515436803</v>
+        <v>-2.912694515436805</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.3464797818569235</v>
+        <v>-0.3464797818569237</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.923116827350028</v>
+        <v>-8.112863977193438</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.6705295065723961</v>
+        <v>-0.6759716124907091</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.299997582199945</v>
+        <v>1.441870806323582</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.2668356291589511</v>
+        <v>0.2936328332872197</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.4707338596095977</v>
+        <v>0.470733859609597</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1484962034487446</v>
+        <v>0.1484962034487444</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.178951618576834</v>
+        <v>-2.166481808995044</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4775333206148733</v>
+        <v>-0.4847125135289096</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.902324937559866</v>
+        <v>2.749148584780506</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.453221408763765</v>
+        <v>1.502979623685959</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.202415821940371</v>
+        <v>0.2024158219403714</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.1884734246623903</v>
+        <v>0.1884734246623906</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.341463184863325</v>
+        <v>-1.12776808045194</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.6985466109780262</v>
+        <v>-0.6615041910361702</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.480859704529398</v>
+        <v>1.553887346225805</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>3.718346206308402</v>
+        <v>3.700944732608445</v>
       </c>
     </row>
     <row r="13">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0</v>
+        <v>0.1352096520532026</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.146002015741235</v>
+        <v>1.130005334603954</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7862271425185405</v>
+        <v>-0.8401498814626273</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.2909092278883669</v>
+        <v>-0.3146092612739796</v>
       </c>
     </row>
     <row r="18">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.115613766593719</v>
+        <v>1.215164593002704</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6610472170016813</v>
+        <v>0.7179416937201212</v>
       </c>
     </row>
     <row r="19">
